--- a/downloads/Uebersicht_gesetzliche_Zahlungsberichte_fuer_2016-2018.xlsx
+++ b/downloads/Uebersicht_gesetzliche_Zahlungsberichte_fuer_2016-2018.xlsx
@@ -2,26 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DUSGRA68\TeamHau\EITI\Zahlungsberichte Internet_veröffentlicht\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DUSGRA68\TeamHau\EITI\Bericht Nr. 3\Übersicht Zahlungsberichte und summary data template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20850" windowHeight="11910" activeTab="2"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8970" tabRatio="764" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name=" Zusammenfassung 2016" sheetId="3" r:id="rId1"/>
     <sheet name="Zahlungsberichte 2016" sheetId="1" r:id="rId2"/>
     <sheet name=" Zusammenfassung 2017" sheetId="6" r:id="rId3"/>
     <sheet name="Zahlungsberichte 2017" sheetId="4" r:id="rId4"/>
-    <sheet name="Zahlungsberichte 2018" sheetId="5" r:id="rId5"/>
+    <sheet name=" Zusammenfassung 2018" sheetId="7" r:id="rId5"/>
+    <sheet name="Zahlungsberichte 2018" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Zahlungsberichte 2016'!$B$2:$F$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Zahlungsberichte 2017'!$B$2:$F$131</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Zahlungsberichte 2018'!$B$2:$F$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Zahlungsberichte 2018'!$B$2:$F$138</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,8 +33,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Heinrich, Christoph</author>
+  </authors>
+  <commentList>
+    <comment ref="G6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Heinrich, Christoph:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Rheinische Baustoffwerke TEUR 312</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="233">
   <si>
     <t>Erdöl/Erdgas</t>
   </si>
@@ -347,10 +382,6 @@
   </si>
   <si>
     <t>**) Angaben basieren auf Zahlungsberichten gemäß § 341 HGB für 2016. Abrufbar unter: www.bundesanzeiger.de, Stand 01.02.2019.</t>
-  </si>
-  <si>
-    <t>Gesetzliche Zahlungsberichte gemäß §§ 341q ff. HGB für 2017
-Abrufbar unter: www.bundesanzeiger.de, Stand 11.07.2019</t>
   </si>
   <si>
     <t>Die Deuna Zement GmbH hat im Berichtszeitraum (1.1. bis 31.12.2017) an keine staatliche Stelle berichtspflichtige Zahlungen geleistet. Die Deuna Zement GmbH teilt daher gemäß § 341t Abs. 1 Satz 3 HGB mit, dass in dem Berichtszeitraum eine Geschäftstätigkeit in der mineralgewinnenden Industrie ausgeübt wurde, ohne dass Zahlungen geleistet wurden.</t>
@@ -387,9 +418,6 @@
     <t>CEMEX Deutschland AG, Rüdersdorf bei Berlin</t>
   </si>
   <si>
-    <t>in Mai 2019 für GJ 2016 veröffentlicht</t>
-  </si>
-  <si>
     <t>Konzern-Zalungsbericht als auch Zahlungsbericht</t>
   </si>
   <si>
@@ -445,9 +473,6 @@
     <t>Zahlungsbericht vom 1.2.2017 bis 31.12.2017</t>
   </si>
   <si>
-    <t>in Januar 2019 für GJ 2016 veröffentlicht, für 2017 fehlt noch</t>
-  </si>
-  <si>
     <t>Produktionszahlungsansprüche, Tbbl OE</t>
   </si>
   <si>
@@ -485,9 +510,6 @@
   </si>
   <si>
     <t>Valet u. Ott GmbH &amp; Co. KG Kies- und Sandwerke, Freiberg am Neckar; Konzern</t>
-  </si>
-  <si>
-    <t>Valet u. Ott GmbH &amp; Co. KG Kies- und Sandwerke, Freiberg am Neckar; Zahlungsbericht</t>
   </si>
   <si>
     <t>Vattenfall GmbH, Berlin</t>
@@ -562,9 +584,6 @@
     <t>neu in 2018</t>
   </si>
   <si>
-    <t>andere Gebühren</t>
-  </si>
-  <si>
     <t>Die Zahlungen an die Stadt Haigerloch i.S.d. § 341 r Nr. 3 Buchst. b) HGB betreffen Gewerbesteuern. Zahlungen im Zusammenhang mit der Körperschaftsteuer werden auf Basis des aus unterschiedlichen Tätigkeitsbereichen stammenden Einkommens für die Wacker Chemie AG insgesamt berechnet und abgeführt. Dabei entfällt der Schwerpunkt der Körperschaftsteuerzahlungen auf Tätigkeiten, die nicht der mineralgewinnenden Industrie zuzuordnen sind. Auf eine Aufteilung der Zahlungen für Zwecke des (Konzern-) Zahlungsberichtes wurde daher verzichtet.</t>
   </si>
   <si>
@@ -590,9 +609,6 @@
   </si>
   <si>
     <t>Die ERLUS AG leistete vom 1. Januar bis 31. Dezember 2017 keine nach §§ 341q ff HGB berichtspflichtige Zahlungen an staatliche Stellen im Zusammenhang mit ihrer Nebentätigkeit in der mineralgewinnenden Industrie.</t>
-  </si>
-  <si>
-    <t>Ertrag-/Gewinn- und Produktionskosten</t>
   </si>
   <si>
     <t>Konzernzahlungsbericht</t>
@@ -690,6 +706,141 @@
   <si>
     <t>Zahlungsströme der Berichterstattung 
 unter D-EITI für 2017</t>
+  </si>
+  <si>
+    <t>Gesetzliche Zahlungsberichte gemäß §§ 341q ff. HGB für 2018
+Abrufbar unter: www.bundesanzeiger.de, Stand 23.11.2020</t>
+  </si>
+  <si>
+    <t>Noch keine Angaben für 2018 verfügbar!!</t>
+  </si>
+  <si>
+    <t>Förderabgabe Erdöl/Erdgas</t>
+  </si>
+  <si>
+    <t>Zahlungsbericht vom 01.04.2018 bis 31.03.2019</t>
+  </si>
+  <si>
+    <t>Lizenz-, Miet- und Zugangsgebühren sowie sonstige Gegenleistungen für Lizenzen und Konzessionen</t>
+  </si>
+  <si>
+    <t>Franken-Schotter GmbH &amp; Co. KG, Treuchtlingen, Ortsteil Dietfurt (Konzernzahlungsbericht)</t>
+  </si>
+  <si>
+    <t>Steuern auf Erträge, Produktion oder Gewinne</t>
+  </si>
+  <si>
+    <t>Geschäftsjahr 01.04.2018-31.03.2019. Die Girnghuber GmbH leistete vom 1. April 2018 bis 31. März 2019 keine nach §§ 341 q ff HGB berichtspflichtige Zahlungen an staatliche Stellen im Zusammenhang mit ihrer Nebentätigkeit in der mineralgewinnenden Industrie.</t>
+  </si>
+  <si>
+    <t>KEMNA BAU Andreae GmbH &amp; Co. KG, Pinneberg</t>
+  </si>
+  <si>
+    <t>Da unter Anwendung der Top-down-Methode die Haupttätigkeit des Konzerns nicht in der Gewinnung von Gesteinskörnungen besteht, liegen für die Konzernunternehmen der KEMNA BAU Andreae GmbH &amp; Co. KG, Pinneberg, im Zeitraum vom 1. Januar bis zum 31. Dezember 2018 keine nach §§ 341q ff HGB berichtspflichtigen Zahlungen vor.</t>
+  </si>
+  <si>
+    <t>Max Bögl Stiftung &amp; Co. KG, Sengenthal</t>
+  </si>
+  <si>
+    <t>Nutzungsentgelt</t>
+  </si>
+  <si>
+    <t>Omya Gesellschaft mit beschränkter Haftung, Köln (Konzern)</t>
+  </si>
+  <si>
+    <t>Ertrag-/Gewinn- und Produktionssteuern</t>
+  </si>
+  <si>
+    <t>Otto Dörner GmbH &amp; Co. KG; Hamburg</t>
+  </si>
+  <si>
+    <t>Bei den an das Finanzamt Hamburg geleisteten Zahlungen handelt es sich ausschließlich um Zahlungen gem. § 341 r Nr.3 b) HGB.</t>
+  </si>
+  <si>
+    <t>PORR Deutschland GmbH, München, Konzern</t>
+  </si>
+  <si>
+    <t>STRABAG AG, Köln</t>
+  </si>
+  <si>
+    <t>Die STRABAG AG, Köln leistete vom 01.01.2018 bis 31.12.2018 keine nach §§341q ff HGB berichtspflichtigen Zahlungen an staatliche Stellen im Zusammenhang mit ihrer Nebentätigkeit in der mineralgewinnenden Industrie.</t>
+  </si>
+  <si>
+    <t>Südbayerisches Portland-Zementwerk Gebr. Wiesböck &amp;Co. GmbH, Rohrdorf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lizenz-, Miet- und Zugangsgebühren sowie sonstige Gegenleistungen für Lizenzen oder Konzessionen </t>
+  </si>
+  <si>
+    <t>Lizenz-, Miet- und Zugangsgebühren sowie sonstige Gegenleistungen für Lizenzen oder Konzessionen</t>
+  </si>
+  <si>
+    <t>noch kein Zahlungsbericht für 2018 im Bundesanzeiger veröffentlicht</t>
+  </si>
+  <si>
+    <t>Suncor Energy Oil (North Africa) GmbH</t>
+  </si>
+  <si>
+    <t>es wurden keine Zahlungen für Deutschland ausgewiesen, sondern ausschließlich für Ausland</t>
+  </si>
+  <si>
+    <t>Gesetzliche Zahlungsberichte für 2018 **)</t>
+  </si>
+  <si>
+    <t>Berichterstattung unter 
+D-EITI für 2018</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*) </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Die MSG hat den Unabhängigen Verwalter beauftragt, einen Abgleich der in den gesetzlichen Zahlungsberichten gemäß §§ 341q ff. HGB für 2017 gemeldeten Zahlungen und der Berichterstattung unter D-EITI für 2017 durchzuführen. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Die Darstellung der Zahlungsströme orientiert sich an den gesetzlichen Vorgaben gemäß § 341r HGB.</t>
+    </r>
+  </si>
+  <si>
+    <t>**) Angaben basieren auf Zahlungsberichten gemäß § 341 HGB für 2018. Abrufbar unter: www.bundesanzeiger.de, Stand 28.01.2020</t>
+  </si>
+  <si>
+    <t>Zahlungsströme der Berichterstattung 
+unter D-EITI für 2018</t>
+  </si>
+  <si>
+    <t>Angabe bereits im KonzernZB enthalten</t>
+  </si>
+  <si>
+    <t>BEB</t>
+  </si>
+  <si>
+    <t>RWE</t>
+  </si>
+  <si>
+    <t>ETI Berichterstattung</t>
+  </si>
+  <si>
+    <t>Sibelco</t>
+  </si>
+  <si>
+    <t>SWS</t>
+  </si>
+  <si>
+    <t>Wacker</t>
   </si>
 </sst>
 </file>
@@ -701,12 +852,19 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$USD]"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -776,6 +934,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -827,7 +1005,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1044,33 +1222,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1085,43 +1287,43 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1130,13 +1332,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1157,7 +1359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1166,7 +1368,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1181,25 +1383,25 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1214,9 +1416,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1235,205 +1437,237 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2"/>
+    <cellStyle name="Standard 3" xfId="3"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1726,11 +1960,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="128" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="2:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B3" s="49" t="s">
@@ -1839,18 +2073,18 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
     </row>
     <row r="17" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1870,10 +2104,10 @@
   <dimension ref="B1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1886,13 +2120,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
     </row>
     <row r="2" spans="2:6" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
@@ -2178,17 +2412,17 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="21" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -2445,14 +2679,14 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" s="19" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F45" s="26"/>
     </row>
@@ -3210,8 +3444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3223,21 +3457,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="128" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B3" s="49" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3263,7 +3497,7 @@
       <c r="D5" s="54">
         <v>187384250.35000002</v>
       </c>
-      <c r="F5" s="134"/>
+      <c r="F5" s="127"/>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="52" t="s">
@@ -3276,7 +3510,7 @@
       <c r="D6" s="54">
         <v>255258870.58999997</v>
       </c>
-      <c r="F6" s="134"/>
+      <c r="F6" s="127"/>
     </row>
     <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
@@ -3309,7 +3543,7 @@
       <c r="D9" s="57">
         <v>1784393.5999999999</v>
       </c>
-      <c r="F9" s="134"/>
+      <c r="F9" s="127"/>
     </row>
     <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="52" t="s">
@@ -3322,7 +3556,7 @@
       <c r="D10" s="57">
         <v>32234848.009999998</v>
       </c>
-      <c r="F10" s="134"/>
+      <c r="F10" s="127"/>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="52"/>
@@ -3343,18 +3577,18 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="130" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
+      <c r="B15" s="129" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
     </row>
     <row r="17" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="133" t="s">
-        <v>200</v>
-      </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
+      <c r="B17" s="132" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3375,10 +3609,10 @@
   <dimension ref="B1:F144"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C115" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="D141" sqref="D141"/>
+      <selection pane="bottomRight" activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3391,13 +3625,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="131" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
+      <c r="B1" s="130" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
     </row>
     <row r="2" spans="2:6" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
@@ -3418,15 +3652,15 @@
     </row>
     <row r="3" spans="2:6" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126" t="s">
-        <v>132</v>
+        <v>175</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124" t="s">
+        <v>129</v>
       </c>
       <c r="F3" s="88" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="2:6" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3476,7 +3710,7 @@
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="26" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -3491,7 +3725,7 @@
         <v>49</v>
       </c>
       <c r="F8" s="88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3542,7 +3776,7 @@
       <c r="D12" s="71"/>
       <c r="E12" s="73"/>
       <c r="F12" s="88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3596,7 +3830,7 @@
       </c>
       <c r="E16" s="74"/>
       <c r="F16" s="88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -3614,7 +3848,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="91" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>1</v>
@@ -3635,7 +3869,7 @@
       </c>
       <c r="E19" s="74"/>
       <c r="F19" s="88" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -3650,12 +3884,12 @@
         <v>49</v>
       </c>
       <c r="F20" s="88" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>1</v>
@@ -3689,12 +3923,12 @@
         <v>49</v>
       </c>
       <c r="F23" s="88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C24" s="111" t="s">
         <v>1</v>
@@ -3718,7 +3952,7 @@
     </row>
     <row r="26" spans="2:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B26" s="98" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C26" s="96" t="s">
         <v>0</v>
@@ -3726,22 +3960,22 @@
       <c r="D26" s="87"/>
       <c r="E26" s="89"/>
       <c r="F26" s="112" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B27" s="21" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="87"/>
       <c r="E27" s="89" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F27" s="88" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
@@ -3761,7 +3995,7 @@
       <c r="D29" s="71"/>
       <c r="E29" s="73"/>
       <c r="F29" s="113" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="2:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3774,7 +4008,7 @@
       <c r="D30" s="71"/>
       <c r="E30" s="73"/>
       <c r="F30" s="113" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
@@ -3801,7 +4035,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="91" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>1</v>
@@ -3809,7 +4043,7 @@
       <c r="D33" s="75"/>
       <c r="E33" s="74"/>
       <c r="F33" s="88" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -3851,17 +4085,17 @@
     </row>
     <row r="37" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B37" s="21" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="41"/>
       <c r="E37" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
@@ -3977,7 +4211,7 @@
     </row>
     <row r="47" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>1</v>
@@ -4010,7 +4244,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>1</v>
@@ -4047,7 +4281,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>1</v>
@@ -4060,7 +4294,7 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>1</v>
@@ -4084,7 +4318,7 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>1</v>
@@ -4095,7 +4329,7 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="102" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>1</v>
@@ -4116,12 +4350,12 @@
       </c>
       <c r="E58" s="72"/>
       <c r="F58" s="112" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" s="103" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>1</v>
@@ -4144,7 +4378,7 @@
         <v>49</v>
       </c>
       <c r="F60" s="88" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -4199,17 +4433,17 @@
     </row>
     <row r="65" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B65" s="19" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F65" s="88" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4235,7 +4469,7 @@
       </c>
       <c r="E67" s="83"/>
       <c r="F67" s="88" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
@@ -4253,7 +4487,7 @@
     </row>
     <row r="69" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B69" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>2</v>
@@ -4263,12 +4497,12 @@
       </c>
       <c r="E69" s="83"/>
       <c r="F69" s="88" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B70" s="19" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>1</v>
@@ -4276,18 +4510,18 @@
       <c r="D70" s="100"/>
       <c r="E70" s="83"/>
       <c r="F70" s="88" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="104" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="100"/>
       <c r="E71" s="83"/>
       <c r="F71" s="112" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
@@ -4346,7 +4580,7 @@
       </c>
       <c r="E76" s="82"/>
       <c r="F76" s="105" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.2">
@@ -4474,7 +4708,7 @@
       </c>
       <c r="E86" s="81"/>
       <c r="F86" s="88" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -4486,10 +4720,10 @@
       </c>
       <c r="D87" s="45"/>
       <c r="E87" s="89" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F87" s="105" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -4501,10 +4735,10 @@
       </c>
       <c r="D88" s="45"/>
       <c r="E88" s="89" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F88" s="36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.2">
@@ -4559,7 +4793,7 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" s="91" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>1</v>
@@ -4580,20 +4814,20 @@
       </c>
       <c r="E94" s="81"/>
       <c r="F94" s="88" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B95" s="91" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="45"/>
       <c r="E95" s="89" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F95" s="88" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="2:6" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4632,7 +4866,7 @@
       </c>
       <c r="E98" s="79"/>
       <c r="F98" s="88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.2">
@@ -4647,22 +4881,22 @@
       </c>
       <c r="E99" s="79"/>
       <c r="F99" s="88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B100" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D100" s="97"/>
       <c r="E100" s="89" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F100" s="88" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -4674,30 +4908,30 @@
       </c>
       <c r="D101" s="97"/>
       <c r="E101" s="89" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F101" s="88" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B102" s="19" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D102" s="97"/>
       <c r="E102" s="89" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F102" s="88" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="204" x14ac:dyDescent="0.2">
       <c r="B103" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>2</v>
@@ -4705,7 +4939,7 @@
       <c r="D103" s="97"/>
       <c r="E103" s="79"/>
       <c r="F103" s="88" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.2">
@@ -4780,10 +5014,10 @@
       </c>
       <c r="D109" s="97"/>
       <c r="E109" s="89" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F109" s="88" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.2">
@@ -4796,7 +5030,7 @@
       <c r="D110" s="97"/>
       <c r="E110" s="79"/>
       <c r="F110" s="114" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.2">
@@ -4849,7 +5083,7 @@
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>1</v>
@@ -4886,13 +5120,13 @@
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B118" s="107" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="97"/>
       <c r="E118" s="79"/>
       <c r="F118" s="114" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.2">
@@ -4905,7 +5139,7 @@
       <c r="D119" s="82"/>
       <c r="E119" s="83"/>
       <c r="F119" s="88" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.2">
@@ -4921,7 +5155,7 @@
     </row>
     <row r="121" spans="2:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="19" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>0</v>
@@ -4931,7 +5165,7 @@
         <v>49</v>
       </c>
       <c r="F121" s="109" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.2">
@@ -4987,7 +5221,7 @@
       </c>
       <c r="E125" s="81"/>
       <c r="F125" s="109" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -5042,30 +5276,30 @@
     </row>
     <row r="130" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B130" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="C130" s="120"/>
-      <c r="D130" s="121"/>
+        <v>167</v>
+      </c>
+      <c r="C130" s="118"/>
+      <c r="D130" s="119"/>
       <c r="E130" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="F130" s="124" t="s">
-        <v>180</v>
+      <c r="F130" s="122" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="131" spans="2:6" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="123" t="s">
+      <c r="B131" s="121" t="s">
         <v>36</v>
       </c>
       <c r="C131" s="47" t="s">
         <v>0</v>
       </c>
       <c r="D131" s="85"/>
-      <c r="E131" s="122" t="s">
+      <c r="E131" s="120" t="s">
         <v>49</v>
       </c>
       <c r="F131" s="110" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.2">
@@ -5158,38 +5392,355 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:S17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="9" width="11.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="18" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="11.42578125" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F1" s="144" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+    </row>
+    <row r="2" spans="2:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="128" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="F2" s="143" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" s="143" t="s">
+        <v>228</v>
+      </c>
+      <c r="H2" s="143" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" s="143" t="s">
+        <v>231</v>
+      </c>
+      <c r="J2" s="143" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B3" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="53">
+        <f>'Zahlungsberichte 2018'!D142</f>
+        <v>300018</v>
+      </c>
+      <c r="D4" s="54">
+        <f>SUM(F4:W4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+    </row>
+    <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="53">
+        <f>'Zahlungsberichte 2018'!D143</f>
+        <v>108846721.59</v>
+      </c>
+      <c r="D5" s="54">
+        <f t="shared" ref="D5:D10" si="0">SUM(F5:W5)</f>
+        <v>22998732.530000001</v>
+      </c>
+      <c r="F5" s="127">
+        <v>13456118.17</v>
+      </c>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127">
+        <v>1436874</v>
+      </c>
+      <c r="I5" s="127">
+        <f>4264750+3513160</f>
+        <v>7777910</v>
+      </c>
+      <c r="J5" s="127">
+        <v>327830.36</v>
+      </c>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+    </row>
+    <row r="6" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="53">
+        <f>'Zahlungsberichte 2018'!D144</f>
+        <v>217901291.91</v>
+      </c>
+      <c r="D6" s="54">
+        <f t="shared" si="0"/>
+        <v>52210606.469999999</v>
+      </c>
+      <c r="F6" s="127">
+        <f>51519859.44</f>
+        <v>51519859.439999998</v>
+      </c>
+      <c r="G6" s="127">
+        <f>312173.34</f>
+        <v>312173.34000000003</v>
+      </c>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127">
+        <v>378573.69</v>
+      </c>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+    </row>
+    <row r="7" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="53">
+        <f>'Zahlungsberichte 2018'!D145</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+    </row>
+    <row r="8" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="53">
+        <f>'Zahlungsberichte 2018'!D146</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
+    </row>
+    <row r="9" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="53">
+        <f>'Zahlungsberichte 2018'!D147</f>
+        <v>5245436.28</v>
+      </c>
+      <c r="D9" s="54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
+    </row>
+    <row r="10" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="53">
+        <f>'Zahlungsberichte 2018'!D148</f>
+        <v>44516516.640000001</v>
+      </c>
+      <c r="D10" s="54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+    </row>
+    <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="52"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="127"/>
+      <c r="O11" s="127"/>
+    </row>
+    <row r="12" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="61">
+        <f>SUM(C4:C11)</f>
+        <v>376809984.41999996</v>
+      </c>
+      <c r="D12" s="62">
+        <f>SUM(D4:D11)</f>
+        <v>75209339</v>
+      </c>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="127"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="127"/>
+    </row>
+    <row r="15" spans="2:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="129" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+    </row>
+    <row r="17" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="132" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F130"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="80.42578125" customWidth="1"/>
+    <col min="2" max="2" width="95.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="48" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" style="141" customWidth="1"/>
     <col min="5" max="5" width="55.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="107.7109375" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="131" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-    </row>
-    <row r="2" spans="2:6" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="130" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
@@ -5205,21 +5756,26 @@
       <c r="F2" s="18" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G2" s="133"/>
+      <c r="H2" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="134"/>
       <c r="B3" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126" t="s">
-        <v>132</v>
+        <v>175</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124" t="s">
+        <v>129</v>
       </c>
       <c r="F3" s="88" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="19" t="s">
         <v>11</v>
       </c>
@@ -5230,7 +5786,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="26"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="20" t="s">
         <v>73</v>
       </c>
@@ -5243,7 +5799,7 @@
       <c r="E5" s="70"/>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>8</v>
       </c>
@@ -5256,7 +5812,7 @@
       <c r="E6" s="70"/>
       <c r="F6" s="26"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
         <v>62</v>
       </c>
@@ -5267,56 +5823,63 @@
       <c r="E7" s="70"/>
       <c r="F7" s="86"/>
     </row>
-    <row r="8" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="118" t="s">
+    <row r="8" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="116" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="71"/>
-      <c r="E8" s="72" t="s">
-        <v>49</v>
-      </c>
+      <c r="E8" s="72"/>
       <c r="F8" s="86" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="94" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="71"/>
-      <c r="E9" s="73"/>
       <c r="F9" s="86"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
       <c r="B10" s="20" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="90"/>
+      <c r="D10" s="90">
+        <f>51104094.41+415765.03</f>
+        <v>51519859.439999998</v>
+      </c>
       <c r="E10" s="74"/>
       <c r="F10" s="86"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
       <c r="B11" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="90"/>
+      <c r="D11" s="90">
+        <v>13456118.17</v>
+      </c>
       <c r="E11" s="74"/>
       <c r="F11" s="86"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="94" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -5324,90 +5887,106 @@
       </c>
       <c r="D12" s="71"/>
       <c r="E12" s="73"/>
-      <c r="F12" s="86" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="88" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="90"/>
+      <c r="D13" s="90">
+        <v>779593.93</v>
+      </c>
       <c r="E13" s="74"/>
       <c r="F13" s="86"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
       <c r="B14" s="20" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="74"/>
+      <c r="D14" s="90">
+        <v>605477.16</v>
+      </c>
       <c r="F14" s="86"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
       <c r="B15" s="20" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="90"/>
+      <c r="D15" s="90">
+        <v>16042.57</v>
+      </c>
       <c r="E15" s="74"/>
       <c r="F15" s="86"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
       <c r="B16" s="20" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="90"/>
+      <c r="D16" s="90">
+        <v>0</v>
+      </c>
       <c r="E16" s="74"/>
-      <c r="F16" s="86" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F16" s="88" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
       <c r="B17" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="90"/>
+      <c r="D17" s="90">
+        <v>602.79</v>
+      </c>
       <c r="E17" s="74"/>
       <c r="F17" s="86"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="92" t="s">
-        <v>109</v>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="91" t="s">
+        <v>108</v>
       </c>
       <c r="C18" s="95"/>
       <c r="D18" s="90"/>
       <c r="E18" s="74"/>
-      <c r="F18" s="86" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="86"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
       <c r="B19" s="20" t="s">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="C19" s="95"/>
-      <c r="D19" s="90"/>
+      <c r="D19" s="90">
+        <v>1937402.78</v>
+      </c>
       <c r="E19" s="74"/>
-      <c r="F19" s="86" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F19" s="88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
       <c r="B20" s="21" t="s">
         <v>40</v>
       </c>
@@ -5419,1365 +5998,1640 @@
         <v>49</v>
       </c>
       <c r="F20" s="88" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="71"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="88"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="87"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="88"/>
+    </row>
+    <row r="23" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="86" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="111" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="86" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="86"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="87"/>
+      <c r="C23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="86" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="71"/>
       <c r="E24" s="89"/>
       <c r="F24" s="86"/>
     </row>
-    <row r="25" spans="2:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="94" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="96" t="s">
-        <v>0</v>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="95" t="s">
+        <v>1</v>
       </c>
       <c r="D25" s="87"/>
       <c r="E25" s="89"/>
-      <c r="F25" s="86" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="93"/>
-      <c r="C26" s="95"/>
+      <c r="F25" s="86"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="95" t="s">
+        <v>1</v>
+      </c>
       <c r="D26" s="87"/>
       <c r="E26" s="89"/>
       <c r="F26" s="86"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="93"/>
-      <c r="C27" s="95"/>
+    <row r="27" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="94" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="96" t="s">
+        <v>0</v>
+      </c>
       <c r="D27" s="87"/>
       <c r="E27" s="89"/>
-      <c r="F27" s="86"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="21" t="s">
+      <c r="F27" s="86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="93"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="86"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="93"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="86"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="127" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="94" t="s">
+      <c r="C30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="71"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="125" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="20" t="s">
+      <c r="C31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="71"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="75"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="86"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="20" t="s">
+      <c r="C32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="75"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="86"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="86"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="75"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="86" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="20" t="s">
-        <v>52</v>
-      </c>
       <c r="C33" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="75"/>
       <c r="E33" s="74"/>
       <c r="F33" s="86"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="21" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="91" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="75"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="86"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="87">
+        <v>636597.81999999995</v>
+      </c>
+      <c r="E35" s="74"/>
+      <c r="F35" s="86"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="77"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="86"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="20" t="s">
+      <c r="C36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="77"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="86"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="97">
+      <c r="C37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="97">
         <v>128000</v>
       </c>
-      <c r="E35" s="79"/>
-      <c r="F35" s="86"/>
-    </row>
-    <row r="36" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="21" t="s">
+      <c r="E37" s="79"/>
+      <c r="F37" s="86"/>
+    </row>
+    <row r="38" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="126" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="88" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="77"/>
-      <c r="E36" s="128" t="s">
-        <v>132</v>
-      </c>
-      <c r="F36" s="127" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="21" t="s">
+      <c r="C39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="77"/>
+      <c r="E39" s="126" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="125" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="77"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="86"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="20" t="s">
+      <c r="C40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="77"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="86"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="97">
+      <c r="C41" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="97">
         <f>610000+160000</f>
         <v>770000</v>
       </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="86"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="20" t="s">
+      <c r="E41" s="79"/>
+      <c r="F41" s="86"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="97">
+      <c r="C42" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="97">
         <v>1097000</v>
       </c>
-      <c r="E39" s="79"/>
-      <c r="F39" s="86"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="20" t="s">
+      <c r="E42" s="79"/>
+      <c r="F42" s="86"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="97">
+      <c r="C43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="97">
         <v>14000</v>
       </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="86"/>
-    </row>
-    <row r="41" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="19" t="s">
+      <c r="E43" s="79"/>
+      <c r="F43" s="86"/>
+    </row>
+    <row r="44" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="69"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="30"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="20" t="s">
+      <c r="C44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="69"/>
+      <c r="F44" s="30"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="90">
+      <c r="C45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="90">
         <v>681218</v>
       </c>
-      <c r="E42" s="74"/>
-      <c r="F42" s="86"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="20" t="s">
+      <c r="E45" s="74"/>
+      <c r="F45" s="86"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="90">
+      <c r="C46" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="90">
         <v>557178</v>
       </c>
-      <c r="E43" s="74"/>
-      <c r="F43" s="86"/>
-    </row>
-    <row r="44" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="69"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="30"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="20" t="s">
+      <c r="E46" s="74"/>
+      <c r="F46" s="86"/>
+    </row>
+    <row r="47" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="69"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="30"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="100">
-        <v>174000</v>
-      </c>
-      <c r="E45" s="83"/>
-      <c r="F45" s="86"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="20" t="s">
+      <c r="C48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="87">
+        <f>174000-174000</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="83"/>
+      <c r="F48" s="88" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="100">
-        <v>100000</v>
-      </c>
-      <c r="E46" s="83"/>
-      <c r="F46" s="86"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="100"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="86"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="100">
-        <v>100000</v>
-      </c>
-      <c r="E48" s="83"/>
-      <c r="F48" s="86"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="20" t="s">
-        <v>69</v>
-      </c>
       <c r="C49" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="100">
-        <v>174000</v>
+      <c r="D49" s="87">
+        <f>100000-100000</f>
+        <v>0</v>
       </c>
       <c r="E49" s="83"/>
-      <c r="F49" s="86"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="100">
-        <v>899000</v>
-      </c>
+      <c r="F49" s="88" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="87"/>
       <c r="E50" s="83"/>
       <c r="F50" s="86"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
       <c r="B51" s="20" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="100">
-        <v>463000</v>
+      <c r="D51" s="87">
+        <v>100000</v>
       </c>
       <c r="E51" s="83"/>
       <c r="F51" s="86"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="19" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="87">
+        <v>174000</v>
+      </c>
+      <c r="E52" s="83"/>
+      <c r="F52" s="86"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="87">
+        <v>899000</v>
+      </c>
+      <c r="E53" s="83"/>
+      <c r="F53" s="86"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="87">
+        <v>463000</v>
+      </c>
+      <c r="E54" s="83"/>
+      <c r="F54" s="86"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="82"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="86"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B53" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="100">
-        <v>463000</v>
-      </c>
-      <c r="E53" s="72"/>
-      <c r="F53" s="86"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="100"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="86"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B55" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="100">
-        <v>3004000</v>
-      </c>
+      <c r="C55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="69"/>
       <c r="E55" s="72"/>
       <c r="F55" s="86"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
       <c r="B56" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="100">
+      <c r="D56" s="87">
+        <f>463000-463000</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="88" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="87"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="86"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="87">
+        <v>3004000</v>
+      </c>
+      <c r="E58" s="72"/>
+      <c r="F58" s="86"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="87">
         <v>570000</v>
       </c>
-      <c r="E56" s="72"/>
-      <c r="F56" s="86"/>
-    </row>
-    <row r="57" spans="2:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="19" t="s">
+      <c r="E59" s="72"/>
+      <c r="F59" s="86"/>
+    </row>
+    <row r="60" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="82"/>
-      <c r="E57" s="89" t="s">
+      <c r="C60" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="69"/>
+      <c r="E60" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="F57" s="88" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="19" t="s">
+      <c r="F60" s="88" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="82"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="86"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="100" t="s">
-        <v>132</v>
-      </c>
-      <c r="E59" s="83"/>
-      <c r="F59" s="88" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B60" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="100">
-        <v>537281.13</v>
-      </c>
-      <c r="E60" s="83"/>
-      <c r="F60" s="86"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B61" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="100">
-        <v>787398.15</v>
-      </c>
+      <c r="C61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="69"/>
       <c r="E61" s="83"/>
       <c r="F61" s="86"/>
     </row>
-    <row r="62" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="82"/>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="87"/>
       <c r="E62" s="83"/>
-      <c r="F62" s="30"/>
-    </row>
-    <row r="63" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F62" s="88" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
       <c r="B63" s="20" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="100">
-        <v>23907389.309999999</v>
+        <v>1</v>
+      </c>
+      <c r="D63" s="87">
+        <v>537281.13</v>
       </c>
       <c r="E63" s="83"/>
-      <c r="F63" s="105" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F63" s="86"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
       <c r="B64" s="20" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="100">
-        <v>162385.51999999999</v>
+        <v>1</v>
+      </c>
+      <c r="D64" s="87">
+        <v>787398.15</v>
       </c>
       <c r="E64" s="83"/>
       <c r="F64" s="86"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="100"/>
-      <c r="E65" s="83"/>
+    <row r="65" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B65" s="116" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="12"/>
+      <c r="E65" s="5"/>
       <c r="F65" s="86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="100"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="69"/>
       <c r="E66" s="83"/>
-      <c r="F66" s="86"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F66" s="30"/>
+    </row>
+    <row r="67" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
       <c r="B67" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="100"/>
+        <v>66</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="87">
+        <v>23907389.309999999</v>
+      </c>
       <c r="E67" s="83"/>
-      <c r="F67" s="86"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F67" s="105" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
       <c r="B68" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="100"/>
+        <v>67</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="87">
+        <v>162385.51999999999</v>
+      </c>
       <c r="E68" s="83"/>
       <c r="F68" s="86"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B69" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="82"/>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="87"/>
       <c r="E69" s="83"/>
-      <c r="F69" s="86"/>
-    </row>
-    <row r="70" spans="2:6" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="88" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
       <c r="B70" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="100">
-        <v>6632810</v>
-      </c>
-      <c r="E70" s="82"/>
-      <c r="F70" s="105" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C70" s="7"/>
+      <c r="D70" s="87"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="86"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
       <c r="B71" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="100">
-        <v>89047</v>
-      </c>
-      <c r="E71" s="83"/>
+        <v>73</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="87"/>
       <c r="F71" s="86"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
       <c r="B72" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="7"/>
+      <c r="D72" s="87"/>
+      <c r="E72" s="83"/>
+      <c r="F72" s="86"/>
+    </row>
+    <row r="73" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="87"/>
+      <c r="E73" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="F73" s="88" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="45">
+      <c r="D74" s="69"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="86"/>
+    </row>
+    <row r="75" spans="1:6" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="87">
+        <v>6632810</v>
+      </c>
+      <c r="E75" s="82"/>
+      <c r="F75" s="105" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="87">
+        <v>89047</v>
+      </c>
+      <c r="E76" s="83"/>
+      <c r="F76" s="86"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="90">
         <v>1074027</v>
       </c>
-      <c r="E72" s="81"/>
-      <c r="F72" s="86"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B73" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="45"/>
-      <c r="E73" s="81"/>
-      <c r="F73" s="86"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B74" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="E74" s="81"/>
-      <c r="F74" s="86"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B75" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D75" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="E75" s="81"/>
-      <c r="F75" s="86"/>
-    </row>
-    <row r="76" spans="2:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="B76" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76" s="45">
-        <v>26816000</v>
-      </c>
-      <c r="E76" s="81"/>
-      <c r="F76" s="88" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B77" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77" s="45">
-        <v>83950000</v>
-      </c>
       <c r="E77" s="81"/>
-      <c r="F77" s="88" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B78" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="45">
-        <v>373000</v>
-      </c>
+      <c r="F77" s="86"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="2"/>
+      <c r="B78" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="90"/>
       <c r="E78" s="81"/>
       <c r="F78" s="86"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B79" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="45"/>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="2"/>
+      <c r="B79" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="90" t="s">
+        <v>98</v>
+      </c>
       <c r="E79" s="81"/>
       <c r="F79" s="86"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="2"/>
       <c r="B80" s="20" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="45">
-        <v>1225570.32</v>
+        <v>0</v>
+      </c>
+      <c r="D80" s="90" t="s">
+        <v>98</v>
       </c>
       <c r="E80" s="81"/>
       <c r="F80" s="86"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
       <c r="B81" s="20" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C81" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="90">
+        <v>26816000</v>
+      </c>
+      <c r="F81" s="88" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="90">
+        <v>83950000</v>
+      </c>
+      <c r="E82" s="81"/>
+      <c r="F82" s="88" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
+      <c r="B83" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="90">
+        <v>373000</v>
+      </c>
+      <c r="E83" s="74">
+        <f>D5+D10+D17+D46+D58+D64+D68+D76+D82+D90+D108+D131+D136</f>
+        <v>215404721.59</v>
+      </c>
+      <c r="F83" s="86"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
+      <c r="B84" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D81" s="45">
-        <v>13752536.640000001</v>
-      </c>
-      <c r="E81" s="81"/>
-      <c r="F81" s="86" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B82" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" s="45"/>
-      <c r="E82" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="F82" s="105" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B83" s="118" t="s">
-        <v>27</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" s="45"/>
-      <c r="E83" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="F83" s="115" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" s="118" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" s="45"/>
+      <c r="D84" s="90"/>
       <c r="E84" s="81"/>
-      <c r="F84" s="86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F84" s="86"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
       <c r="B85" s="20" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85" s="45"/>
+        <v>2</v>
+      </c>
+      <c r="D85" s="90">
+        <v>1225570.32</v>
+      </c>
       <c r="E85" s="81"/>
       <c r="F85" s="86"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
       <c r="B86" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="90">
+        <v>13752536.640000001</v>
+      </c>
+      <c r="E86" s="81"/>
+      <c r="F86" s="86" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="2"/>
+      <c r="B87" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="90"/>
+      <c r="E87" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="F87" s="105" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
+      <c r="B88" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="90"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="135"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="90">
+        <v>300018</v>
+      </c>
+      <c r="E89" s="89"/>
+      <c r="F89" s="135"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
+      <c r="B90" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="90">
+        <v>291568</v>
+      </c>
+      <c r="E90" s="89"/>
+      <c r="F90" s="135"/>
+    </row>
+    <row r="91" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
+      <c r="B91" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="90"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="136" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="2"/>
+      <c r="B92" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="90"/>
+      <c r="E92" s="81"/>
+      <c r="F92" s="86"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="2"/>
+      <c r="B93" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" s="90"/>
+      <c r="E93" s="81"/>
+      <c r="F93" s="86"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="2"/>
+      <c r="B94" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D86" s="45"/>
-      <c r="E86" s="81"/>
-      <c r="F86" s="86"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B87" s="20" t="s">
+      <c r="C94" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="90"/>
+      <c r="E94" s="81"/>
+      <c r="F94" s="86"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="2"/>
+      <c r="B95" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C87" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D87" s="45"/>
-      <c r="E87" s="81"/>
-      <c r="F87" s="86"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B88" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D88" s="45"/>
-      <c r="E88" s="81"/>
-      <c r="F88" s="86"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B89" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" s="45">
+      <c r="C95" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="90"/>
+      <c r="E95" s="81"/>
+      <c r="F95" s="86"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
+      <c r="B96" s="91" t="s">
+        <v>208</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="90"/>
+      <c r="E96" s="81"/>
+      <c r="F96" s="86"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="2"/>
+      <c r="B97" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="90">
         <v>481427.03</v>
       </c>
-      <c r="E89" s="81"/>
-      <c r="F89" s="88" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B90" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="F90" s="88" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="21" t="s">
+      <c r="E97" s="81"/>
+      <c r="F97" s="88" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="2"/>
+      <c r="B98" s="91" t="s">
+        <v>210</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="90"/>
+      <c r="E98" s="81"/>
+      <c r="F98" s="88"/>
+    </row>
+    <row r="99" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B99" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="90">
+        <v>148000</v>
+      </c>
+      <c r="E99" s="81"/>
+      <c r="F99" s="88" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A100" s="2"/>
+      <c r="B100" s="91" t="s">
+        <v>212</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="90"/>
+      <c r="E100" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="F100" s="88" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91" s="77"/>
-      <c r="E91" s="78"/>
-      <c r="F91" s="86"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92" s="97">
+      <c r="C101" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" s="77"/>
+      <c r="E101" s="78"/>
+      <c r="F101" s="86"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B102" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" s="97">
         <v>10506000</v>
       </c>
-      <c r="E92" s="79"/>
-      <c r="F92" s="86"/>
-    </row>
-    <row r="93" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="20" t="s">
+      <c r="E102" s="79"/>
+      <c r="F102" s="86"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B103" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D93" s="97"/>
-      <c r="E93" s="79"/>
-      <c r="F93" s="86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D94" s="97"/>
-      <c r="E94" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="F94" s="88" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B95" s="118" t="s">
-        <v>29</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D95" s="97"/>
-      <c r="E95" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="F95" s="86" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" ht="280.5" x14ac:dyDescent="0.2">
-      <c r="B96" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" s="97"/>
-      <c r="E96" s="79"/>
-      <c r="F96" s="88" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B97" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D97" s="97">
-        <v>16478539</v>
-      </c>
-      <c r="E97" s="79"/>
-      <c r="F97" s="86"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B98" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D98" s="97">
-        <v>30419661</v>
-      </c>
-      <c r="E98" s="79"/>
-      <c r="F98" s="86"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B99" s="118" t="s">
-        <v>84</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D99" s="97"/>
-      <c r="E99" s="79"/>
-      <c r="F99" s="86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B100" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D100" s="97"/>
-      <c r="E100" s="79"/>
-      <c r="F100" s="86"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B101" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" s="97"/>
-      <c r="E101" s="79"/>
-      <c r="F101" s="86"/>
-    </row>
-    <row r="102" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B102" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D102" s="97"/>
-      <c r="E102" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="F102" s="88" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B103" s="118" t="s">
-        <v>32</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>4</v>
+      <c r="C103" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="D103" s="97"/>
       <c r="E103" s="79"/>
-      <c r="F103" s="86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F103" s="88" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A104" s="2"/>
       <c r="B104" s="19" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D104" s="97"/>
-      <c r="E104" s="79"/>
-      <c r="F104" s="86"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B105" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D105" s="97">
-        <v>9288000</v>
-      </c>
-      <c r="E105" s="79"/>
-      <c r="F105" s="86"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B106" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C106" s="7"/>
-      <c r="D106" s="97">
-        <v>250000</v>
-      </c>
-      <c r="E106" s="79"/>
-      <c r="F106" s="88" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E104" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="F104" s="88" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A105" s="2"/>
+      <c r="B105" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="97"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="86" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="B106" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" s="97"/>
+      <c r="E106" s="89"/>
+      <c r="F106" s="86" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="280.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="2"/>
       <c r="B107" s="19" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D107" s="97"/>
-      <c r="E107" s="79"/>
-      <c r="F107" s="86"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E107" s="137"/>
+      <c r="F107" s="88" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B108" s="20" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D108" s="97">
-        <v>7778000</v>
+        <v>16478539</v>
       </c>
       <c r="E108" s="79"/>
       <c r="F108" s="86"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B109" s="118" t="s">
-        <v>142</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109" s="97"/>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B109" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="97">
+        <v>30419661</v>
+      </c>
       <c r="E109" s="79"/>
       <c r="F109" s="86"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B110" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C110" s="7" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="2"/>
+      <c r="B110" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="97"/>
       <c r="E110" s="79"/>
       <c r="F110" s="86"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B111" s="20" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D111" s="97"/>
+      <c r="D111" s="97">
+        <v>673518</v>
+      </c>
       <c r="E111" s="79"/>
       <c r="F111" s="86"/>
     </row>
-    <row r="112" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B112" s="118" t="s">
-        <v>143</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D112" s="97"/>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B112" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" s="97">
+        <v>763356</v>
+      </c>
       <c r="E112" s="79"/>
       <c r="F112" s="86"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B113" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C113" s="7" t="s">
+    <row r="113" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="2"/>
+      <c r="B113" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D113" s="97"/>
-      <c r="E113" s="79"/>
-      <c r="F113" s="86"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B114" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>1</v>
+      <c r="E113" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="F113" s="88" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="2"/>
+      <c r="B114" s="116" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="D114" s="97"/>
       <c r="E114" s="79"/>
-      <c r="F114" s="86"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B115" s="92" t="s">
-        <v>144</v>
-      </c>
-      <c r="C115" s="7"/>
+      <c r="F114" s="86" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="2"/>
+      <c r="B115" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C115" s="4"/>
       <c r="D115" s="97"/>
-      <c r="E115" s="79"/>
-      <c r="F115" s="86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B116" s="118" t="s">
-        <v>21</v>
+      <c r="E115" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="F115" s="88" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="2"/>
+      <c r="B116" s="19" t="s">
+        <v>215</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D116" s="82"/>
-      <c r="E116" s="83"/>
-      <c r="F116" s="86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D116" s="97"/>
+      <c r="E116" s="79"/>
+      <c r="F116" s="86"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B117" s="20" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D117" s="80"/>
-      <c r="E117" s="81"/>
+      <c r="D117" s="97">
+        <v>9288000</v>
+      </c>
+      <c r="E117" s="79"/>
       <c r="F117" s="86"/>
     </row>
-    <row r="118" spans="2:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="118" t="s">
-        <v>146</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D118" s="69"/>
-      <c r="E118" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="F118" s="116" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B119" s="119" t="s">
-        <v>48</v>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B118" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="97">
+        <v>250000</v>
+      </c>
+      <c r="E118" s="73"/>
+      <c r="F118" s="88" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="2"/>
+      <c r="B119" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D119" s="82"/>
-      <c r="E119" s="83"/>
-      <c r="F119" s="117"/>
-    </row>
-    <row r="120" spans="2:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D119" s="97"/>
+      <c r="E119" s="79"/>
+      <c r="F119" s="86"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B120" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D120" s="45">
+      <c r="D120" s="97">
+        <v>7778000</v>
+      </c>
+      <c r="E120" s="79"/>
+      <c r="F120" s="86"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B121" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" s="97"/>
+      <c r="E121" s="79"/>
+      <c r="F121" s="86" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="2"/>
+      <c r="B122" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122" s="97"/>
+      <c r="E122" s="79"/>
+      <c r="F122" s="86"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="2"/>
+      <c r="B123" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" s="97">
+        <v>242488.68</v>
+      </c>
+      <c r="E123" s="79"/>
+      <c r="F123" s="86"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="2"/>
+      <c r="B124" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124" s="97">
+        <v>503275.93</v>
+      </c>
+      <c r="E124" s="79"/>
+      <c r="F124" s="86"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="2"/>
+      <c r="B125" s="92" t="s">
+        <v>140</v>
+      </c>
+      <c r="C125" s="7"/>
+      <c r="D125" s="97"/>
+      <c r="E125" s="79"/>
+      <c r="F125" s="86" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="2"/>
+      <c r="B126" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126" s="69"/>
+      <c r="E126" s="83"/>
+      <c r="F126" s="86" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="2"/>
+      <c r="B127" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127" s="139"/>
+      <c r="E127" s="81"/>
+      <c r="F127" s="86"/>
+    </row>
+    <row r="128" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="2"/>
+      <c r="B128" s="116" t="s">
+        <v>142</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" s="69"/>
+      <c r="E128" s="72"/>
+      <c r="F128" s="115" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="2"/>
+      <c r="B129" s="117" t="s">
+        <v>48</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="69"/>
+      <c r="E129" s="83"/>
+      <c r="F129" s="138"/>
+    </row>
+    <row r="130" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="2"/>
+      <c r="B130" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C130" s="4"/>
+      <c r="D130" s="87">
         <v>327830.36</v>
       </c>
-      <c r="E120" s="84"/>
-      <c r="F120" s="109" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B121" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121" s="45">
+      <c r="E130" s="83"/>
+      <c r="F130" s="109" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="2"/>
+      <c r="B131" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C131" s="4"/>
+      <c r="D131" s="87">
         <v>378573.69</v>
       </c>
-      <c r="E121" s="84"/>
-      <c r="F121" s="109" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B122" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" s="45">
+      <c r="E131" s="83"/>
+      <c r="F131" s="109" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A132" s="2"/>
+      <c r="B132" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C132" s="4"/>
+      <c r="D132" s="87">
         <v>11965</v>
       </c>
-      <c r="E122" s="81"/>
-      <c r="F122" s="109" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="19" t="s">
+      <c r="E132" s="83"/>
+      <c r="F132" s="109" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="2"/>
+      <c r="B133" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D123" s="82"/>
-      <c r="E123" s="83"/>
-      <c r="F123" s="86"/>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B124" s="20" t="s">
+      <c r="C133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="69"/>
+      <c r="E133" s="83"/>
+      <c r="F133" s="86"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="2"/>
+      <c r="B134" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C124" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D124" s="45">
+      <c r="C134" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134" s="90">
         <v>2118616</v>
       </c>
-      <c r="E124" s="81"/>
-      <c r="F124" s="86"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B125" s="20" t="s">
+      <c r="E134" s="81"/>
+      <c r="F134" s="86"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="2"/>
+      <c r="B135" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C125" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D125" s="45">
+      <c r="C135" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135" s="90">
         <v>728919</v>
       </c>
-      <c r="E125" s="81"/>
-      <c r="F125" s="86"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B126" s="20" t="s">
+      <c r="E135" s="81"/>
+      <c r="F135" s="86"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="2"/>
+      <c r="B136" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C126" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D126" s="45">
+      <c r="C136" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136" s="90">
         <v>3480908</v>
       </c>
-      <c r="E126" s="81"/>
-      <c r="F126" s="86"/>
-    </row>
-    <row r="127" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B127" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="C127" s="120"/>
-      <c r="D127" s="121"/>
-      <c r="E127" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="F127" s="109" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="123" t="s">
+      <c r="E136" s="81"/>
+      <c r="F136" s="86"/>
+    </row>
+    <row r="137" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A137" s="2"/>
+      <c r="B137" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C137" s="118"/>
+      <c r="D137" s="140"/>
+      <c r="E137" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="F137" s="109" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+      <c r="B138" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="C128" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D128" s="85"/>
-      <c r="E128" s="122" t="s">
+      <c r="C138" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="85"/>
+      <c r="E138" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="F128" s="110" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E130" s="46"/>
+      <c r="F138" s="110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D140" s="141">
+        <f>SUM(D3:D138)</f>
+        <v>376809984.41999996</v>
+      </c>
+      <c r="E140" s="46"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>96</v>
+      </c>
+      <c r="D142" s="141">
+        <f>D89</f>
+        <v>300018</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="141">
+        <f>D11+D13+D14+D35+D37+D41+D45+D63+D67+D75+D81+D97+D99+D102+D111+D112+D117+D120+D123+D130+D134+D53+D59+D51</f>
+        <v>108846721.59</v>
+      </c>
+      <c r="E143" s="46"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>73</v>
+      </c>
+      <c r="D144" s="141">
+        <f>D5+D10+D17+D46+D58+D64+D68+D76+D82+D90+D108+D131+D136+D42+D85+D52</f>
+        <v>217901291.91</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="141">
+        <f>D6+D19+D15+D43+D54+D77+D83+D124+D132+D135</f>
+        <v>5245436.28</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>62</v>
+      </c>
+      <c r="D148" s="142">
+        <f>D7+D86+D109+D118</f>
+        <v>44516516.640000001</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D149" s="141">
+        <f>SUM(D142:D148)</f>
+        <v>376809984.41999996</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D150" s="141">
+        <f>D140-D149</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:F128"/>
+  <autoFilter ref="B2:F138"/>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="29" fitToHeight="3" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="43" fitToHeight="3" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>